--- a/2023-2024 - matura informatyk/2023.11.08 - czerwiec 2023/informatyka-2023-czerwiec-matura-rozszerzona-zalaczniki/DANE/kraje i urzadzenia.xlsx
+++ b/2023-2024 - matura informatyk/2023.11.08 - czerwiec 2023/informatyka-2023-czerwiec-matura-rozszerzona-zalaczniki/DANE/kraje i urzadzenia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bajojajo\School-projects-2023\2023-2024 - matura informatyk\2023.11.08 - czerwiec 2023\informatyka-2023-czerwiec-matura-rozszerzona-zalaczniki\DANE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD156790-3ADE-4624-A3D4-D818A919E75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8398C9B-BBBA-4093-A39C-19AEBAD11E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
